--- a/E2/DataTotal.xlsx
+++ b/E2/DataTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukifujita/Documents/University/3S/experiment/E2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC747371-BE99-2C46-85AF-597EF0385F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A439B-22EC-CF4E-99CC-449B47C5E9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="12340" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_01_free1" localSheetId="0">無負荷試験1!$A$1:$D$18</definedName>
     <definedName name="_01_free2" localSheetId="1">無負荷試験2!$A$1:$D$16</definedName>
     <definedName name="_02_lock" localSheetId="2">拘束試験!$A:$C</definedName>
-    <definedName name="tttt." localSheetId="3">負荷試験!$A$1:$H$14</definedName>
+    <definedName name="tttt." localSheetId="3">負荷試験!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>V1(V)</t>
   </si>
@@ -96,16 +96,10 @@
     <t>I1(A)</t>
   </si>
   <si>
-    <t>W1(W)</t>
-  </si>
-  <si>
     <t>1次電圧</t>
   </si>
   <si>
     <t>1次電流</t>
-  </si>
-  <si>
-    <t>回転数</t>
   </si>
   <si>
     <t>電気入力(三相分)</t>
@@ -120,37 +114,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>動力計の腕の長さ L=0.287[m]</t>
-  </si>
-  <si>
-    <t>電気入力(3相分)</t>
-  </si>
-  <si>
-    <t>動力計の読み</t>
-  </si>
-  <si>
-    <t>界磁電流</t>
-  </si>
-  <si>
-    <t>負荷電圧</t>
-  </si>
-  <si>
-    <t>負荷電流</t>
-  </si>
-  <si>
-    <t>n(rpm)</t>
-  </si>
-  <si>
     <t>(kg)</t>
-  </si>
-  <si>
-    <t>If(A)</t>
-  </si>
-  <si>
-    <t>V2(V)</t>
-  </si>
-  <si>
-    <t>I2(A)</t>
   </si>
   <si>
     <t>V1</t>
@@ -163,6 +127,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>I2</t>
   </si>
 </sst>
 </file>
@@ -755,15 +731,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1124,16 +1097,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,16 +1371,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,7 +1604,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1643,12 +1616,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1659,7 +1632,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1670,10 +1643,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>371</v>
@@ -1688,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1704,132 +1677,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>1482</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>5.9</v>
+      </c>
+      <c r="D2">
+        <v>410</v>
+      </c>
+      <c r="E2">
+        <v>0.34</v>
+      </c>
+      <c r="F2">
+        <v>1.22</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="A3">
+        <v>1480</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>6.01</v>
+      </c>
+      <c r="D3">
+        <v>562</v>
+      </c>
+      <c r="E3">
+        <v>0.52</v>
+      </c>
+      <c r="F3">
+        <v>1.17</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1.55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D4">
-        <v>410</v>
+        <v>701</v>
       </c>
       <c r="E4">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="F4">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>6.01</v>
+        <v>6.34</v>
       </c>
       <c r="D5">
-        <v>562</v>
+        <v>884</v>
       </c>
       <c r="E5">
-        <v>0.52</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F5">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>1.55</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>701</v>
+        <v>1040</v>
       </c>
       <c r="E6">
-        <v>0.79</v>
+        <v>1.55</v>
       </c>
       <c r="F6">
         <v>1.28</v>
@@ -1838,221 +1829,166 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7">
-        <v>6.34</v>
+        <v>6.86</v>
       </c>
       <c r="D7">
-        <v>884</v>
+        <v>1254</v>
       </c>
       <c r="E7">
-        <v>1.1599999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="F7">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>4.5999999999999996</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="B8">
         <v>200</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D8">
-        <v>1040</v>
+        <v>1437</v>
       </c>
       <c r="E8">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="F8">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8">
-        <v>6.1</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1453</v>
+        <v>1434</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9">
-        <v>6.86</v>
+        <v>7.72</v>
       </c>
       <c r="D9">
-        <v>1254</v>
+        <v>1714</v>
       </c>
       <c r="E9">
-        <v>2.06</v>
+        <v>3.28</v>
       </c>
       <c r="F9">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>7.65</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1445</v>
+        <v>1427</v>
       </c>
       <c r="B10">
         <v>200</v>
       </c>
       <c r="C10">
-        <v>7.2</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="D10">
-        <v>1437</v>
+        <v>1920</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="F10">
-        <v>1.44</v>
+        <v>1.595</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>9.1999999999999993</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="B11">
         <v>200</v>
       </c>
       <c r="C11">
-        <v>7.72</v>
+        <v>8.76</v>
       </c>
       <c r="D11">
-        <v>1714</v>
+        <v>2194</v>
       </c>
       <c r="E11">
-        <v>3.28</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F11">
-        <v>1.53</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>10.75</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1427</v>
+        <v>1404</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12">
-        <v>8.1300000000000008</v>
+        <v>9.5</v>
       </c>
       <c r="D12">
-        <v>1920</v>
+        <v>2496</v>
       </c>
       <c r="E12">
-        <v>3.68</v>
+        <v>5.04</v>
       </c>
       <c r="F12">
-        <v>1.595</v>
+        <v>1.82</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1416</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13">
-        <v>8.76</v>
-      </c>
-      <c r="D13">
-        <v>2194</v>
-      </c>
-      <c r="E13">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F13">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1404</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>9.5</v>
-      </c>
-      <c r="D14">
-        <v>2496</v>
-      </c>
-      <c r="E14">
-        <v>5.04</v>
-      </c>
-      <c r="F14">
-        <v>1.82</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
         <v>15.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
